--- a/!Documentation/Tasks.xlsx
+++ b/!Documentation/Tasks.xlsx
@@ -15,8 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Should ask Krasi if it's implemented properly.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Number</t>
   </si>
@@ -133,13 +157,28 @@
   </si>
   <si>
     <t>Rename all servlet mappings</t>
+  </si>
+  <si>
+    <t>Authentication filter</t>
+  </si>
+  <si>
+    <t>Finished ?</t>
+  </si>
+  <si>
+    <t>Added 1 filter for authenticating servlets that require a logged in user</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Filter sliders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +195,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +222,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -423,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -482,19 +534,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -822,7 +883,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,13 +896,13 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -912,19 +973,19 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="16">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -963,19 +1024,19 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="18">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1126,12 +1187,22 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:5" ht="45">
+      <c r="A21" s="17">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
       <c r="A22" s="19"/>
@@ -1142,13 +1213,13 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="3" t="s">
@@ -1168,13 +1239,19 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>1</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="19">
@@ -1192,6 +1269,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/!Documentation/Tasks.xlsx
+++ b/!Documentation/Tasks.xlsx
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D21" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>Number</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Editing Product Info</t>
   </si>
   <si>
-    <t>Putting Products On Promotion</t>
-  </si>
-  <si>
     <t>Not Assigned</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>Filter sliders</t>
+  </si>
+  <si>
+    <t>Has Working Example</t>
+  </si>
+  <si>
+    <t>Have to read form as JSON data</t>
   </si>
 </sst>
 </file>
@@ -546,17 +549,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -896,13 +899,13 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -946,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -973,20 +976,20 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>20</v>
+      <c r="D8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
@@ -997,274 +1000,257 @@
         <v>16</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="24">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="16">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="25">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="18">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="16">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="120">
+      <c r="A14" s="18">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60">
+      <c r="A15" s="16">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="18">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45">
+      <c r="A17" s="16">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18" s="18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="45">
+      <c r="A19" s="16">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="17">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="26" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="16">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="60">
-      <c r="A13" s="18">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="16">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="120">
-      <c r="A15" s="18">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60">
-      <c r="A16" s="16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="18">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="16">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60">
-      <c r="A19" s="18">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="45">
-      <c r="A20" s="16">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="45">
-      <c r="A21" s="17">
-        <v>17</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A26" s="19">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20">
-        <v>1</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A27" s="19">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/!Documentation/Tasks.xlsx
+++ b/!Documentation/Tasks.xlsx
@@ -108,9 +108,6 @@
     <t>Filtering products</t>
   </si>
   <si>
-    <t>Filter products by: year, price, genre, rating etc. (we have an example SQL built for this type of filtering)</t>
-  </si>
-  <si>
     <t>Product Ordering</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Notifications for products which are about to expire</t>
   </si>
   <si>
-    <t>Notifications for products that have expired???</t>
-  </si>
-  <si>
     <t>Same as 11 for expired products.</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>Have to read form as JSON data</t>
+  </si>
+  <si>
+    <t>Filter products by: year, price, genre, rating etc. (The example SQL is in the GIT repository)</t>
+  </si>
+  <si>
+    <t>Removing expired products</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,7 +900,7 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -986,10 +986,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
@@ -1020,10 +1020,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
@@ -1072,41 +1072,41 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="120">
+      <c r="A14" s="17">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="120">
-      <c r="A14" s="18">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60">
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45">
       <c r="A15" s="16">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
@@ -1114,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
@@ -1131,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60">
@@ -1148,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -1178,16 +1178,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
@@ -1200,7 +1200,7 @@
     <row r="22" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>17</v>

--- a/!Documentation/Tasks.xlsx
+++ b/!Documentation/Tasks.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Number</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Notifications for products which are about to expire</t>
-  </si>
-  <si>
-    <t>Same as 11 for expired products.</t>
   </si>
   <si>
     <t>Sending emails to users that have 1 day left until some of their products expire. Group all expiring products in 1 email. (Can build a Map&lt;userId, List&lt;productId&gt;&gt; and create email message from there).</t>
@@ -886,7 +883,7 @@
   <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,7 +897,7 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -986,10 +983,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
@@ -1020,10 +1017,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
@@ -1055,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
@@ -1089,32 +1086,30 @@
         <v>6</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="18">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -1123,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
@@ -1131,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -1140,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60">
@@ -1148,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1163,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -1178,16 +1173,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
@@ -1200,7 +1195,7 @@
     <row r="22" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -1229,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>17</v>

--- a/!Documentation/Tasks.xlsx
+++ b/!Documentation/Tasks.xlsx
@@ -21,6 +21,20 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Not implemented in a servlet. Otherwise successfully extracting filtered requests from JSON data.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D20" authorId="0">
       <text>
         <r>
@@ -882,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1039,36 +1053,36 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="18">
+      <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="16">
+      <c r="A13" s="24">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>23</v>
       </c>
     </row>

--- a/!Documentation/Tasks.xlsx
+++ b/!Documentation/Tasks.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Number</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Removing expired products</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Implemented as DAO methods</t>
+  </si>
+  <si>
+    <t>Rate products</t>
   </si>
 </sst>
 </file>
@@ -217,7 +229,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -489,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -571,6 +589,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -987,19 +1014,19 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="24">
+      <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1038,51 +1065,53 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="16">
+      <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="C11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="24">
+      <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="24">
+      <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1200,10 +1229,18 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="19">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1"/>
@@ -1252,9 +1289,15 @@
       <c r="A26" s="19">
         <v>2</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E26" s="9"/>
     </row>
   </sheetData>

--- a/!Documentation/Tasks.xlsx
+++ b/!Documentation/Tasks.xlsx
@@ -587,17 +587,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,13 +937,13 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -1014,19 +1014,19 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1065,53 +1065,53 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1">
       <c r="A24" s="3" t="s">
